--- a/tietokanta/character_creation/backgrounds.xlsx
+++ b/tietokanta/character_creation/backgrounds.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D744F440-D54B-42B2-A2DD-4D6B9BC9FACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3885" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,247 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Acolyte</t>
+  </si>
+  <si>
+    <t>Free|||Intelligence||||Wisdom</t>
+  </si>
+  <si>
+    <t>Feat</t>
+  </si>
+  <si>
+    <t>Student of the Canon</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Acrobat</t>
+  </si>
+  <si>
+    <t>Free|||Strength||||Dexterity</t>
+  </si>
+  <si>
+    <t>Steady Balance</t>
+  </si>
+  <si>
+    <t>Animal Whisperer</t>
+  </si>
+  <si>
+    <t>Free|||Wisdom||||Charisma</t>
+  </si>
+  <si>
+    <t>Nature|Trained|||Lore|Trained</t>
+  </si>
+  <si>
+    <t>Train Animal</t>
+  </si>
+  <si>
+    <t>Artisan</t>
+  </si>
+  <si>
+    <t>Free|||Strength||||Intelligence</t>
+  </si>
+  <si>
+    <t>Crafting|Trained|||Lore(Guild)|Trained</t>
+  </si>
+  <si>
+    <t>Acrobatics|Trained|||Lore(Circus)|Trained</t>
+  </si>
+  <si>
+    <t>Religion|Trained|||Lore(Scribing)|Trained</t>
+  </si>
+  <si>
+    <t>Specialty Crafting</t>
+  </si>
+  <si>
+    <t>Barkeep</t>
+  </si>
+  <si>
+    <t>Free|||Constitution||||Charisma</t>
+  </si>
+  <si>
+    <t>Diplomacy|Trained|||Lore(Alcohol)|Trained</t>
+  </si>
+  <si>
+    <t>Hobnobber</t>
+  </si>
+  <si>
+    <t>Barrister</t>
+  </si>
+  <si>
+    <t>Free|||Intelligence||||Charisma</t>
+  </si>
+  <si>
+    <t>Diplomacy|Trained|||Lore(Legal)|Trained</t>
+  </si>
+  <si>
+    <t>Group Impression</t>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+  </si>
+  <si>
+    <t>Free|||Strength||||Wisdom</t>
+  </si>
+  <si>
+    <t>Survival|Trained|||Lore(Legal)|Trained</t>
+  </si>
+  <si>
+    <t>Experienced Tracker</t>
+  </si>
+  <si>
+    <t>Charlatan</t>
+  </si>
+  <si>
+    <t>Deception|Trained|||Lore(Underworld)|Trained</t>
+  </si>
+  <si>
+    <t>Charming Liar</t>
+  </si>
+  <si>
+    <t>Criminal</t>
+  </si>
+  <si>
+    <t>Free|||Dexterity||||Intelligence</t>
+  </si>
+  <si>
+    <t>Stealth|Trained|||Lore(Underworld)|Trained</t>
+  </si>
+  <si>
+    <t>Experienced Smuggler</t>
+  </si>
+  <si>
+    <t>Detective</t>
+  </si>
+  <si>
+    <t>Society|Trained|||Lore(Underworld)|Trained</t>
+  </si>
+  <si>
+    <t>Streetwise</t>
+  </si>
+  <si>
+    <t>Emissary</t>
+  </si>
+  <si>
+    <t>Society|Trained|||Lore(City)|Trained</t>
+  </si>
+  <si>
+    <t>Multilingual</t>
+  </si>
+  <si>
+    <t>Entertainer</t>
+  </si>
+  <si>
+    <t>Free|||Dexterity||||Charisma</t>
+  </si>
+  <si>
+    <t>Performance|Trained|||Lore(Theater)|Trained</t>
+  </si>
+  <si>
+    <t>Fascinating Performance</t>
+  </si>
+  <si>
+    <t>Free|||Constitution||||Wisdom</t>
+  </si>
+  <si>
+    <t>Athletics|Trained|||Lore(Farming)|Trained</t>
+  </si>
+  <si>
+    <t>Assurance(Athletics)</t>
+  </si>
+  <si>
+    <t>Farmhand</t>
+  </si>
+  <si>
+    <t>Field Medic</t>
+  </si>
+  <si>
+    <t>Medicine|Trained|||Lore(Warfare)|Trained</t>
+  </si>
+  <si>
+    <t>Battle Medic</t>
+  </si>
+  <si>
+    <t>Fortune Teller</t>
+  </si>
+  <si>
+    <t>Occultism|Trained|||Lore(Fortunetelling)|Trained</t>
+  </si>
+  <si>
+    <t>Oddity Identification</t>
+  </si>
+  <si>
+    <t>Gambler</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Herbalist</t>
+  </si>
+  <si>
+    <t>Hermit</t>
+  </si>
+  <si>
+    <t>Deception|Trained|||Lore(Games)|Trained</t>
+  </si>
+  <si>
+    <t>Lie to Me</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>Free|||Strength||||Charisma</t>
+  </si>
+  <si>
+    <t>Performance|Trained|||Lore(Gladiatorial)|Trained</t>
+  </si>
+  <si>
+    <t>Impressive Performance</t>
+  </si>
+  <si>
+    <t>Intimidation|Trained|||Lore(Legal)|Trained||||Lore(Warfare)|Trained</t>
+  </si>
+  <si>
+    <t>Quick Coercion</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Nature|Trained|||Lore(Herbalism)|Trained</t>
+  </si>
+  <si>
+    <t>Natural Medicine</t>
+  </si>
+  <si>
+    <t>Free|||Constitution||||Intelligence</t>
+  </si>
+  <si>
+    <t>Occultism|Trained|||Nature|Trained|||Lore(Terrain)|Trained</t>
+  </si>
+  <si>
+    <t>Dubious Knowledge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +575,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tietokanta/character_creation/backgrounds.xlsx
+++ b/tietokanta/character_creation/backgrounds.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D744F440-D54B-42B2-A2DD-4D6B9BC9FACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28537AE-1664-4E5A-B069-1ACA74A83284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="1710" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -259,6 +267,168 @@
   </si>
   <si>
     <t>Dubious Knowledge</t>
+  </si>
+  <si>
+    <t>Free|||Dexterity||||Wisdom</t>
+  </si>
+  <si>
+    <t>Survival|Trained|||Lore(Tanning)|Trained</t>
+  </si>
+  <si>
+    <t>Survey Wildlife</t>
+  </si>
+  <si>
+    <t>Laborer</t>
+  </si>
+  <si>
+    <t>Free|||Strength||||Constitution</t>
+  </si>
+  <si>
+    <t>Athletics|Trained|||Lore(Labor)|Trained</t>
+  </si>
+  <si>
+    <t>Hefty Hauler</t>
+  </si>
+  <si>
+    <t>Athletics|Trained|||Lore(Warfare)|Trained</t>
+  </si>
+  <si>
+    <t>Catfall</t>
+  </si>
+  <si>
+    <t>Martial Disciple2</t>
+  </si>
+  <si>
+    <t>Martial Disciple1</t>
+  </si>
+  <si>
+    <t>Acrobatics|Trained|||Lore(Warfare)|Trained</t>
+  </si>
+  <si>
+    <t>Quick Jump</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>Diplomacy|Trained|||Lore(Mercantile)|Trained</t>
+  </si>
+  <si>
+    <t>Bargain Hunter</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Survival|Trained|||Lore(Miner)|Trained</t>
+  </si>
+  <si>
+    <t>Terrain Expertise(underground)</t>
+  </si>
+  <si>
+    <t>Society|Trained|||Lore(Genealogy)|Trained</t>
+  </si>
+  <si>
+    <t>Courtly Graces</t>
+  </si>
+  <si>
+    <t>Noble1</t>
+  </si>
+  <si>
+    <t>Noble2</t>
+  </si>
+  <si>
+    <t>Society|Trained|||Lore(Heraldry)|Trained</t>
+  </si>
+  <si>
+    <t>Nomad</t>
+  </si>
+  <si>
+    <t>Survival|Trained|||Lore(Terrain)|Trained</t>
+  </si>
+  <si>
+    <t>Assurance(Survival)</t>
+  </si>
+  <si>
+    <t>Prisoner</t>
+  </si>
+  <si>
+    <t>Sailor</t>
+  </si>
+  <si>
+    <t>Athletics|Trained|||Lore(Sailing)|Trained</t>
+  </si>
+  <si>
+    <t>Underwater Marauder</t>
+  </si>
+  <si>
+    <t>Forager</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Arcana|Trained|||Lore(Academia)|Trained</t>
+  </si>
+  <si>
+    <t>Assurrance(Arcana)</t>
+  </si>
+  <si>
+    <t>Religion|Trained|||Lore(Academia)|Trained</t>
+  </si>
+  <si>
+    <t>Assurrance(Religion)</t>
+  </si>
+  <si>
+    <t>Nature|Trained|||Lore(Academia)|Trained</t>
+  </si>
+  <si>
+    <t>Assurrance(Nature)</t>
+  </si>
+  <si>
+    <t>Occultism|Trained|||Lore(Academia)|Trained</t>
+  </si>
+  <si>
+    <t>Assurrance(Occultism)</t>
+  </si>
+  <si>
+    <t>Scholar1</t>
+  </si>
+  <si>
+    <t>Scholar2</t>
+  </si>
+  <si>
+    <t>Scholar3</t>
+  </si>
+  <si>
+    <t>Scholar4</t>
+  </si>
+  <si>
+    <t>Street Urchin</t>
+  </si>
+  <si>
+    <t>Free|||Dexterity||||Constitution</t>
+  </si>
+  <si>
+    <t>Thievery|Trained|||Lore(City)|Trained</t>
+  </si>
+  <si>
+    <t>Pickpocket</t>
+  </si>
+  <si>
+    <t>Crafting|Trained|||Lore(Engineering)|Trained</t>
+  </si>
+  <si>
+    <t>Tinker</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Intimidation|Trained|||Lore(Warfare)|Trained</t>
+  </si>
+  <si>
+    <t>Intimidating Glare</t>
   </si>
 </sst>
 </file>
@@ -576,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,6 +1061,267 @@
       <c r="A22" t="s">
         <v>72</v>
       </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tietokanta/character_creation/backgrounds.xlsx
+++ b/tietokanta/character_creation/backgrounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28537AE-1664-4E5A-B069-1ACA74A83284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{362E19F8-436F-410E-BE5C-1E2B71EA05A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1710" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,19 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{55C9F80F-4A44-4F1A-B981-EBFD02721C8D}" name="ancestry" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\ancestry.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" xr16:uid="{DF837F96-E8DE-4CF6-B0EE-E60B4380A762}" name="background_schema" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\background_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -429,6 +440,9 @@
   </si>
   <si>
     <t>Intimidating Glare</t>
+  </si>
+  <si>
+    <t>placeholder</t>
   </si>
 </sst>
 </file>
@@ -464,8 +478,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -481,6 +496,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema2">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="backgrounds">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Background" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Boost" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Skill" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Feat" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="2" Name="backgrounds-määritys" RootElement="backgrounds" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E30F2932-A194-4F7C-B71A-64DC09364D3E}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" tableType="xml" totalsRowShown="0" connectionId="2">
+  <autoFilter ref="A1:E40" xr:uid="{BCFF37DB-8AB3-4723-BF5D-C6527D347D01}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E41CD033-4B2C-4E08-B87E-36D9A5ADF016}" uniqueName="Name" name="Name">
+      <xmlColumnPr mapId="2" xpath="/backgrounds/Background/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E1A47D69-5119-4858-9DD9-300C7ABB4963}" uniqueName="Boost" name="Boost">
+      <xmlColumnPr mapId="2" xpath="/backgrounds/Background/Boost" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{24820BB7-3149-4A89-AC14-B98AD9AD33D0}" uniqueName="Skill" name="Skill">
+      <xmlColumnPr mapId="2" xpath="/backgrounds/Background/Skill" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{48CE2AD8-5BA3-4094-9C08-1436465BB957}" uniqueName="Feat" name="Feat">
+      <xmlColumnPr mapId="2" xpath="/backgrounds/Background/Feat" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{37E81CB4-175A-4FA4-9BF5-BA7118B4776A}" uniqueName="Description" name="Description">
+      <xmlColumnPr mapId="2" xpath="/backgrounds/Background/Description" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,552 +846,672 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E19" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E20" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E21" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E24" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="E25" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E27" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E28" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="E31" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E33" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E35" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="E36" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E37" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E39" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>131</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>